--- a/data/trans_camb/P25A_7_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_7_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>9,37</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,15</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 15,53</t>
+          <t>-5,81; 22,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 16,05</t>
+          <t>-7,05; 22,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 12,42</t>
+          <t>-8,66; 20,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 9,53</t>
+          <t>-24,64; 13,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 11,21</t>
+          <t>-24,58; 14,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 10,91</t>
+          <t>-12,21; 33,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; 13,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 14,63</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 26,38</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>113,3%</t>
+          <t>131,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>120,48%</t>
+          <t>136,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>120,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>-19,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>-11,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>30,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,71%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 608,43</t>
+          <t>-61,13; 1391,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 623,58</t>
+          <t>-64,81; 1281,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 58,33</t>
+          <t>-55,71; 1288,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 43,77</t>
+          <t>-61,36; 67,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 85,68</t>
+          <t>-59,61; 67,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 83,04</t>
+          <t>-33,75; 184,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-48,62; 111,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-43,21; 107,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-27,29; 204,9</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>5,08</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,51</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 3,28</t>
+          <t>-10,67; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 8,02</t>
+          <t>-7,94; 15,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 8,15</t>
+          <t>-4,19; 20,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 13,03</t>
+          <t>-6,84; 10,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,86</t>
+          <t>-4,9; 12,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,02</t>
+          <t>-4,23; 14,32</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 4,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 9,34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 12,44</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>-40,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-10,04%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28,88%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,56; 66,01</t>
+          <t>-72,68; 30,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 165,83</t>
+          <t>-62,59; 214,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 54,05</t>
+          <t>-35,72; 268,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 80,59</t>
+          <t>-29,16; 65,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 32,56</t>
+          <t>-20,85; 78,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 58,64</t>
+          <t>-17,79; 90,01</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-35,62; 34,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-25,2; 73,56</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 93,66</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,22</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 4,58</t>
+          <t>-8,79; 9,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 5,7</t>
+          <t>-8,95; 7,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 2,33</t>
+          <t>-4,22; 14,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 6,72</t>
+          <t>-6,3; 6,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 1,58</t>
+          <t>-3,98; 9,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,19</t>
+          <t>-1,86; 12,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 4,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 6,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 10,73</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,88%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,06%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,68%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48,65%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,74; 59,49</t>
+          <t>-54,95; 107,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 71,45</t>
+          <t>-55,4; 92,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,84; 24,38</t>
+          <t>-27,49; 196,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 66,08</t>
+          <t>-50,93; 102,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 15,82</t>
+          <t>-32,84; 139,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 40,77</t>
+          <t>-15,96; 191,36</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-39,8; 59,06</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,84; 80,5</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 130,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 7,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 48,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 86,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 24,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 42,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 22,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 36,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 3,8</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 8,47</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 14,25</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 5,12</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 8,59</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 13,84</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 2,69</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 6,62</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 11,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-10,21%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>47,52%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-1,16%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>41,59%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-5,08%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>42,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-46,95; 47,25</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-39,4; 92,0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; 153,3</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-28,64; 36,7</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-13,7; 61,75</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 94,29</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,46; 22,09</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,77; 51,25</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 92,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
